--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.059106333333333</v>
+        <v>10.02989533333333</v>
       </c>
       <c r="N2">
-        <v>12.177319</v>
+        <v>30.089686</v>
       </c>
       <c r="O2">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165088</v>
       </c>
       <c r="P2">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165089</v>
       </c>
       <c r="Q2">
-        <v>1.769754124908</v>
+        <v>16.591723667574</v>
       </c>
       <c r="R2">
-        <v>15.927787124172</v>
+        <v>149.325513008166</v>
       </c>
       <c r="S2">
-        <v>0.09504591974640816</v>
+        <v>0.3446149747392311</v>
       </c>
       <c r="T2">
-        <v>0.09504591974640818</v>
+        <v>0.3446149747392311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.891698</v>
       </c>
       <c r="O3">
-        <v>0.1540190438977748</v>
+        <v>0.08062742045192038</v>
       </c>
       <c r="P3">
-        <v>0.1540190438977748</v>
+        <v>0.0806274204519204</v>
       </c>
       <c r="Q3">
-        <v>0.420256253736</v>
+        <v>1.594508302482</v>
       </c>
       <c r="R3">
-        <v>3.782306283624</v>
+        <v>14.350574722338</v>
       </c>
       <c r="S3">
-        <v>0.02257016474963405</v>
+        <v>0.03311840586251</v>
       </c>
       <c r="T3">
-        <v>0.02257016474963406</v>
+        <v>0.03311840586251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8139219999999999</v>
+        <v>0.911782</v>
       </c>
       <c r="N4">
-        <v>2.441766</v>
+        <v>2.735346</v>
       </c>
       <c r="O4">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388421</v>
       </c>
       <c r="P4">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388423</v>
       </c>
       <c r="Q4">
-        <v>0.3548667363119999</v>
+        <v>1.508294402514</v>
       </c>
       <c r="R4">
-        <v>3.193800626808</v>
+        <v>13.574649622626</v>
       </c>
       <c r="S4">
-        <v>0.01905837362686385</v>
+        <v>0.0313277178330494</v>
       </c>
       <c r="T4">
-        <v>0.01905837362686385</v>
+        <v>0.03132771783304941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H5">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I5">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J5">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4213850000000001</v>
+        <v>0.049405</v>
       </c>
       <c r="N5">
-        <v>1.264155</v>
+        <v>0.148215</v>
       </c>
       <c r="O5">
-        <v>0.06733204658252402</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="P5">
-        <v>0.06733204658252401</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="Q5">
-        <v>0.18372217446</v>
+        <v>0.08172708493499999</v>
       </c>
       <c r="R5">
-        <v>1.65349957014</v>
+        <v>0.7355437644149999</v>
       </c>
       <c r="S5">
-        <v>0.009866931684800294</v>
+        <v>0.001697495563130008</v>
       </c>
       <c r="T5">
-        <v>0.009866931684800294</v>
+        <v>0.001697495563130009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.059106333333333</v>
+        <v>10.02989533333333</v>
       </c>
       <c r="N6">
-        <v>12.177319</v>
+        <v>30.089686</v>
       </c>
       <c r="O6">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165088</v>
       </c>
       <c r="P6">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165089</v>
       </c>
       <c r="Q6">
-        <v>5.231075868531333</v>
+        <v>12.92578689334533</v>
       </c>
       <c r="R6">
-        <v>47.079682816782</v>
+        <v>116.332082040108</v>
       </c>
       <c r="S6">
-        <v>0.2809386966190277</v>
+        <v>0.2684723909933704</v>
       </c>
       <c r="T6">
-        <v>0.2809386966190277</v>
+        <v>0.2684723909933705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.891698</v>
       </c>
       <c r="O7">
-        <v>0.1540190438977748</v>
+        <v>0.08062742045192038</v>
       </c>
       <c r="P7">
-        <v>0.1540190438977748</v>
+        <v>0.0806274204519204</v>
       </c>
       <c r="Q7">
         <v>1.242202132249333</v>
@@ -883,10 +883,10 @@
         <v>11.179819190244</v>
       </c>
       <c r="S7">
-        <v>0.06671336007013112</v>
+        <v>0.02580090320951662</v>
       </c>
       <c r="T7">
-        <v>0.06671336007013114</v>
+        <v>0.02580090320951663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.866178</v>
       </c>
       <c r="I8">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J8">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8139219999999999</v>
+        <v>0.911782</v>
       </c>
       <c r="N8">
-        <v>2.441766</v>
+        <v>2.735346</v>
       </c>
       <c r="O8">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388421</v>
       </c>
       <c r="P8">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388423</v>
       </c>
       <c r="Q8">
-        <v>1.048922443372</v>
+        <v>1.175037169732</v>
       </c>
       <c r="R8">
-        <v>9.440301990347999</v>
+        <v>10.575334527588</v>
       </c>
       <c r="S8">
-        <v>0.05633313519081308</v>
+        <v>0.02440586720692771</v>
       </c>
       <c r="T8">
-        <v>0.05633313519081309</v>
+        <v>0.02440586720692772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.866178</v>
       </c>
       <c r="I9">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J9">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4213850000000001</v>
+        <v>0.049405</v>
       </c>
       <c r="N9">
-        <v>1.264155</v>
+        <v>0.148215</v>
       </c>
       <c r="O9">
-        <v>0.06733204658252402</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="P9">
-        <v>0.06733204658252401</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="Q9">
-        <v>0.54304980551</v>
+        <v>0.06366950802999999</v>
       </c>
       <c r="R9">
-        <v>4.88744824959</v>
+        <v>0.5730255722699999</v>
       </c>
       <c r="S9">
-        <v>0.02916488087603084</v>
+        <v>0.00132243438602458</v>
       </c>
       <c r="T9">
-        <v>0.02916488087603084</v>
+        <v>0.00132243438602458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H10">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I10">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J10">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.059106333333333</v>
+        <v>10.02989533333333</v>
       </c>
       <c r="N10">
-        <v>12.177319</v>
+        <v>30.089686</v>
       </c>
       <c r="O10">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165088</v>
       </c>
       <c r="P10">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165089</v>
       </c>
       <c r="Q10">
-        <v>4.254358819214778</v>
+        <v>8.885477589203111</v>
       </c>
       <c r="R10">
-        <v>38.289229372933</v>
+        <v>79.96929830282799</v>
       </c>
       <c r="S10">
-        <v>0.2284834041138523</v>
+        <v>0.1845539798214927</v>
       </c>
       <c r="T10">
-        <v>0.2284834041138523</v>
+        <v>0.1845539798214927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H11">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I11">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J11">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.891698</v>
       </c>
       <c r="O11">
-        <v>0.1540190438977748</v>
+        <v>0.08062742045192038</v>
       </c>
       <c r="P11">
-        <v>0.1540190438977748</v>
+        <v>0.0806274204519204</v>
       </c>
       <c r="Q11">
-        <v>1.010265140365111</v>
+        <v>0.8539177768004443</v>
       </c>
       <c r="R11">
-        <v>9.092386263285999</v>
+        <v>7.685259991203999</v>
       </c>
       <c r="S11">
-        <v>0.05425701689421278</v>
+        <v>0.01773612308024253</v>
       </c>
       <c r="T11">
-        <v>0.0542570168942128</v>
+        <v>0.01773612308024254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H12">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I12">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J12">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8139219999999999</v>
+        <v>0.911782</v>
       </c>
       <c r="N12">
-        <v>2.441766</v>
+        <v>2.735346</v>
       </c>
       <c r="O12">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388421</v>
       </c>
       <c r="P12">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388423</v>
       </c>
       <c r="Q12">
-        <v>0.8530735473513332</v>
+        <v>0.8077470659453333</v>
       </c>
       <c r="R12">
-        <v>7.677661926161999</v>
+        <v>7.269723593507999</v>
       </c>
       <c r="S12">
-        <v>0.04581492919167713</v>
+        <v>0.01677714385217581</v>
       </c>
       <c r="T12">
-        <v>0.04581492919167714</v>
+        <v>0.01677714385217582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H13">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I13">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J13">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4213850000000001</v>
+        <v>0.049405</v>
       </c>
       <c r="N13">
-        <v>1.264155</v>
+        <v>0.148215</v>
       </c>
       <c r="O13">
-        <v>0.06733204658252402</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="P13">
-        <v>0.06733204658252401</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="Q13">
-        <v>0.4416546017316667</v>
+        <v>0.04376785656333333</v>
       </c>
       <c r="R13">
-        <v>3.974891415585001</v>
+        <v>0.3939107090699999</v>
       </c>
       <c r="S13">
-        <v>0.02371937843851729</v>
+        <v>0.0009090712385381001</v>
       </c>
       <c r="T13">
-        <v>0.02371937843851729</v>
+        <v>0.0009090712385381003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H14">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I14">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J14">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4.059106333333333</v>
+        <v>10.02989533333333</v>
       </c>
       <c r="N14">
-        <v>12.177319</v>
+        <v>30.089686</v>
       </c>
       <c r="O14">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165088</v>
       </c>
       <c r="P14">
-        <v>0.648594365531327</v>
+        <v>0.8389720380165089</v>
       </c>
       <c r="Q14">
-        <v>0.8216321266743333</v>
+        <v>1.989894457850444</v>
       </c>
       <c r="R14">
-        <v>7.394689140069</v>
+        <v>17.909050120654</v>
       </c>
       <c r="S14">
-        <v>0.04412634505203878</v>
+        <v>0.04133069246241461</v>
       </c>
       <c r="T14">
-        <v>0.04412634505203879</v>
+        <v>0.04133069246241462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H15">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I15">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J15">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.891698</v>
       </c>
       <c r="O15">
-        <v>0.1540190438977748</v>
+        <v>0.08062742045192038</v>
       </c>
       <c r="P15">
-        <v>0.1540190438977748</v>
+        <v>0.0806274204519204</v>
       </c>
       <c r="Q15">
-        <v>0.1951096113553333</v>
+        <v>0.1912340934357778</v>
       </c>
       <c r="R15">
-        <v>1.755986502198</v>
+        <v>1.721106840922</v>
       </c>
       <c r="S15">
-        <v>0.01047850218379681</v>
+        <v>0.003971988299651229</v>
       </c>
       <c r="T15">
-        <v>0.01047850218379682</v>
+        <v>0.00397198829965123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H16">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I16">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J16">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8139219999999999</v>
+        <v>0.911782</v>
       </c>
       <c r="N16">
-        <v>2.441766</v>
+        <v>2.735346</v>
       </c>
       <c r="O16">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388421</v>
       </c>
       <c r="P16">
-        <v>0.1300545439883743</v>
+        <v>0.07626795468388423</v>
       </c>
       <c r="Q16">
-        <v>0.164751649474</v>
+        <v>0.1808942055993333</v>
       </c>
       <c r="R16">
-        <v>1.482764845266</v>
+        <v>1.628047850394</v>
       </c>
       <c r="S16">
-        <v>0.008848105979020219</v>
+        <v>0.003757225791731292</v>
       </c>
       <c r="T16">
-        <v>0.008848105979020221</v>
+        <v>0.003757225791731292</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H17">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I17">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J17">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4213850000000001</v>
+        <v>0.049405</v>
       </c>
       <c r="N17">
-        <v>1.264155</v>
+        <v>0.148215</v>
       </c>
       <c r="O17">
-        <v>0.06733204658252402</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="P17">
-        <v>0.06733204658252401</v>
+        <v>0.004132586847686508</v>
       </c>
       <c r="Q17">
-        <v>0.08529548754500001</v>
+        <v>0.009801770848333332</v>
       </c>
       <c r="R17">
-        <v>0.7676593879050001</v>
+        <v>0.08821593763499999</v>
       </c>
       <c r="S17">
-        <v>0.004580855583175582</v>
+        <v>0.0002035856599938192</v>
       </c>
       <c r="T17">
-        <v>0.004580855583175582</v>
+        <v>0.0002035856599938192</v>
       </c>
     </row>
   </sheetData>
